--- a/script_uat.xlsx
+++ b/script_uat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arifw\Documents\Personal Documents\Endeavours\Investment\Forex\Programs\botapp-trader\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF2E50D9-B458-4E72-8519-E5BFD52F9DB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{520D0040-66CB-4042-913F-31FA3414A0E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{CD51AF28-5EF6-4D67-AA7B-A29B72BAD367}"/>
   </bookViews>
@@ -434,12 +434,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -469,62 +463,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -568,12 +508,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -586,16 +554,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -913,8 +913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BEA62DC-C5FE-4FE0-9C8D-0F26FA189AE5}">
   <dimension ref="A1:D87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36:B40"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -940,454 +940,454 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="18"/>
+      <c r="D2" s="16"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="39"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="45" t="s">
+      <c r="A3" s="63"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="17"/>
+      <c r="D3" s="15"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="39"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="45" t="s">
+      <c r="A4" s="63"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="41"/>
+      <c r="D4" s="23"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="42"/>
-      <c r="B5" s="43"/>
-      <c r="C5" s="50" t="s">
+      <c r="A5" s="64"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="44"/>
+      <c r="D5" s="24"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="47" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="51" t="s">
+      <c r="C6" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="52"/>
+      <c r="D6" s="32"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="28"/>
+      <c r="A7" s="48"/>
       <c r="B7" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="46" t="s">
+      <c r="C7" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="36"/>
+      <c r="D7" s="22"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="28"/>
-      <c r="B8" s="11" t="s">
+      <c r="A8" s="48"/>
+      <c r="B8" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="46" t="s">
+      <c r="C8" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="16"/>
+      <c r="D8" s="14"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="28"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="46" t="s">
+      <c r="A9" s="48"/>
+      <c r="B9" s="68"/>
+      <c r="C9" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="16"/>
+      <c r="D9" s="14"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="28"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="47" t="s">
+      <c r="A10" s="48"/>
+      <c r="B10" s="68"/>
+      <c r="C10" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="16"/>
+      <c r="D10" s="14"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="29"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="23" t="s">
+      <c r="A11" s="49"/>
+      <c r="B11" s="69"/>
+      <c r="C11" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="13"/>
+      <c r="D11" s="11"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="22"/>
+      <c r="D12" s="20"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="25"/>
-      <c r="B13" s="31"/>
-      <c r="C13" s="48" t="s">
+      <c r="A13" s="51"/>
+      <c r="B13" s="71"/>
+      <c r="C13" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="16"/>
+      <c r="D13" s="14"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="25"/>
-      <c r="B14" s="31"/>
-      <c r="C14" s="48" t="s">
+      <c r="A14" s="51"/>
+      <c r="B14" s="71"/>
+      <c r="C14" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="16"/>
+      <c r="D14" s="14"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="26"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="53" t="s">
+      <c r="A15" s="52"/>
+      <c r="B15" s="72"/>
+      <c r="C15" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="13"/>
+      <c r="D15" s="11"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="49" t="s">
+      <c r="C16" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="22"/>
+      <c r="D16" s="20"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="25"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="20" t="s">
+      <c r="A17" s="51"/>
+      <c r="B17" s="60"/>
+      <c r="C17" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="16"/>
+      <c r="D17" s="14"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="25"/>
-      <c r="B18" s="34"/>
-      <c r="C18" s="20" t="s">
+      <c r="A18" s="51"/>
+      <c r="B18" s="60"/>
+      <c r="C18" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="16"/>
+      <c r="D18" s="14"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="26"/>
-      <c r="B19" s="35"/>
-      <c r="C19" s="23" t="s">
+      <c r="A19" s="52"/>
+      <c r="B19" s="61"/>
+      <c r="C19" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="13"/>
+      <c r="D19" s="11"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="24" t="s">
+      <c r="A20" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="33" t="s">
+      <c r="B20" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="54" t="s">
+      <c r="C20" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="22"/>
+      <c r="D20" s="20"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" s="25"/>
-      <c r="B21" s="34"/>
-      <c r="C21" s="19" t="s">
+      <c r="A21" s="51"/>
+      <c r="B21" s="60"/>
+      <c r="C21" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="16"/>
+      <c r="D21" s="14"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" s="25"/>
-      <c r="B22" s="34"/>
-      <c r="C22" s="20" t="s">
+      <c r="A22" s="51"/>
+      <c r="B22" s="60"/>
+      <c r="C22" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="16"/>
+      <c r="D22" s="14"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" s="25"/>
-      <c r="B23" s="34"/>
-      <c r="C23" s="48" t="s">
+      <c r="A23" s="51"/>
+      <c r="B23" s="60"/>
+      <c r="C23" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="16"/>
+      <c r="D23" s="14"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" s="25"/>
-      <c r="B24" s="34"/>
-      <c r="C24" s="46" t="s">
+      <c r="A24" s="51"/>
+      <c r="B24" s="60"/>
+      <c r="C24" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="D24" s="16"/>
+      <c r="D24" s="14"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" s="25"/>
-      <c r="B25" s="34"/>
-      <c r="C25" s="46" t="s">
+      <c r="A25" s="51"/>
+      <c r="B25" s="60"/>
+      <c r="C25" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="D25" s="16"/>
+      <c r="D25" s="14"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" s="24" t="s">
+      <c r="A26" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="B26" s="33" t="s">
+      <c r="B26" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="21" t="s">
+      <c r="C26" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="D26" s="22"/>
+      <c r="D26" s="20"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" s="25"/>
-      <c r="B27" s="34"/>
-      <c r="C27" s="19" t="s">
+      <c r="A27" s="51"/>
+      <c r="B27" s="60"/>
+      <c r="C27" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="D27" s="16"/>
+      <c r="D27" s="14"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" s="25"/>
-      <c r="B28" s="34"/>
-      <c r="C28" s="19" t="s">
+      <c r="A28" s="51"/>
+      <c r="B28" s="60"/>
+      <c r="C28" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D28" s="16"/>
+      <c r="D28" s="14"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" s="25"/>
-      <c r="B29" s="34"/>
-      <c r="C29" s="19" t="s">
+      <c r="A29" s="51"/>
+      <c r="B29" s="60"/>
+      <c r="C29" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="D29" s="16"/>
+      <c r="D29" s="14"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" s="26"/>
-      <c r="B30" s="35"/>
-      <c r="C30" s="23" t="s">
+      <c r="A30" s="52"/>
+      <c r="B30" s="61"/>
+      <c r="C30" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="D30" s="13"/>
+      <c r="D30" s="11"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" s="24" t="s">
+      <c r="A31" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="B31" s="66" t="s">
+      <c r="B31" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="49" t="s">
+      <c r="C31" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="D31" s="22"/>
+      <c r="D31" s="20"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" s="25"/>
-      <c r="B32" s="67"/>
-      <c r="C32" s="45" t="s">
+      <c r="A32" s="51"/>
+      <c r="B32" s="57"/>
+      <c r="C32" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="D32" s="16"/>
+      <c r="D32" s="14"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" s="25"/>
-      <c r="B33" s="67"/>
-      <c r="C33" s="20" t="s">
+      <c r="A33" s="51"/>
+      <c r="B33" s="57"/>
+      <c r="C33" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="D33" s="16"/>
+      <c r="D33" s="14"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" s="25"/>
-      <c r="B34" s="67"/>
-      <c r="C34" s="56" t="s">
+      <c r="A34" s="51"/>
+      <c r="B34" s="57"/>
+      <c r="C34" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="D34" s="57"/>
+      <c r="D34" s="37"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35" s="26"/>
-      <c r="B35" s="68"/>
-      <c r="C35" s="58" t="s">
+      <c r="A35" s="52"/>
+      <c r="B35" s="58"/>
+      <c r="C35" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="D35" s="59"/>
+      <c r="D35" s="39"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A36" s="24" t="s">
+      <c r="A36" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="B36" s="69" t="s">
+      <c r="B36" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="C36" s="54" t="s">
+      <c r="C36" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="D36" s="61"/>
+      <c r="D36" s="41"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37" s="25"/>
-      <c r="B37" s="70"/>
-      <c r="C37" s="20" t="s">
+      <c r="A37" s="51"/>
+      <c r="B37" s="45"/>
+      <c r="C37" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="D37" s="57"/>
+      <c r="D37" s="37"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A38" s="25"/>
-      <c r="B38" s="70"/>
-      <c r="C38" s="20" t="s">
+      <c r="A38" s="51"/>
+      <c r="B38" s="45"/>
+      <c r="C38" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="D38" s="36"/>
+      <c r="D38" s="22"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A39" s="25"/>
-      <c r="B39" s="70"/>
-      <c r="C39" s="20" t="s">
+      <c r="A39" s="51"/>
+      <c r="B39" s="45"/>
+      <c r="C39" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="D39" s="36"/>
+      <c r="D39" s="22"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A40" s="26"/>
-      <c r="B40" s="71"/>
-      <c r="C40" s="62" t="s">
+      <c r="A40" s="52"/>
+      <c r="B40" s="46"/>
+      <c r="C40" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="D40" s="15"/>
+      <c r="D40" s="13"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A41" s="27" t="s">
+      <c r="A41" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="B41" s="72" t="s">
+      <c r="B41" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="C41" s="64" t="s">
+      <c r="C41" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="D41" s="52"/>
+      <c r="D41" s="32"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A42" s="28"/>
-      <c r="B42" s="46" t="s">
+      <c r="A42" s="48"/>
+      <c r="B42" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="C42" s="63" t="s">
+      <c r="C42" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="D42" s="36"/>
+      <c r="D42" s="22"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A43" s="29"/>
-      <c r="B43" s="55" t="s">
+      <c r="A43" s="49"/>
+      <c r="B43" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="C43" s="65"/>
-      <c r="D43" s="15"/>
+      <c r="C43" s="55"/>
+      <c r="D43" s="13"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A44" s="27" t="s">
+      <c r="A44" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="B44" s="72" t="s">
+      <c r="B44" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="C44" s="64" t="s">
+      <c r="C44" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="D44" s="52"/>
+      <c r="D44" s="32"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A45" s="28"/>
-      <c r="B45" s="70" t="s">
+      <c r="A45" s="48"/>
+      <c r="B45" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="C45" s="60" t="s">
+      <c r="C45" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="D45" s="36"/>
+      <c r="D45" s="22"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A46" s="28"/>
-      <c r="B46" s="70"/>
-      <c r="C46" s="20" t="s">
+      <c r="A46" s="48"/>
+      <c r="B46" s="45"/>
+      <c r="C46" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="D46" s="36"/>
+      <c r="D46" s="22"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A47" s="29"/>
-      <c r="B47" s="71"/>
-      <c r="C47" s="23" t="s">
+      <c r="A47" s="49"/>
+      <c r="B47" s="46"/>
+      <c r="C47" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="D47" s="15"/>
+      <c r="D47" s="13"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A48" s="27" t="s">
+      <c r="A48" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="B48" s="72" t="s">
+      <c r="B48" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="C48" s="64" t="s">
+      <c r="C48" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="D48" s="52"/>
+      <c r="D48" s="32"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A49" s="28"/>
-      <c r="B49" s="70" t="s">
+      <c r="A49" s="48"/>
+      <c r="B49" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="C49" s="60" t="s">
+      <c r="C49" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="D49" s="36"/>
+      <c r="D49" s="22"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A50" s="29"/>
-      <c r="B50" s="71"/>
-      <c r="C50" s="62" t="s">
+      <c r="A50" s="49"/>
+      <c r="B50" s="46"/>
+      <c r="C50" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="D50" s="15"/>
+      <c r="D50" s="13"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" s="7"/>
-      <c r="B51" s="46"/>
+      <c r="B51" s="26"/>
       <c r="C51" s="7"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
@@ -1570,6 +1570,20 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="A6:A11"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A31:A35"/>
+    <mergeCell ref="B31:B35"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="B20:B25"/>
+    <mergeCell ref="A20:A25"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="B26:B30"/>
     <mergeCell ref="B49:B50"/>
     <mergeCell ref="A48:A50"/>
     <mergeCell ref="A36:A40"/>
@@ -1578,20 +1592,6 @@
     <mergeCell ref="A41:A43"/>
     <mergeCell ref="B45:B47"/>
     <mergeCell ref="A44:A47"/>
-    <mergeCell ref="A31:A35"/>
-    <mergeCell ref="B31:B35"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="B20:B25"/>
-    <mergeCell ref="A20:A25"/>
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="B26:B30"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="A6:A11"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="A12:A15"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/script_uat.xlsx
+++ b/script_uat.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arifw\Documents\Personal Documents\Endeavours\Investment\Forex\Programs\botapp-trader\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arifwicaksono/Documents/project/botapp-trader/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF2E50D9-B458-4E72-8519-E5BFD52F9DB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E7844AF-C53A-B74F-9FB1-E9B67F78ADE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{CD51AF28-5EF6-4D67-AA7B-A29B72BAD367}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17420" xr2:uid="{CD51AF28-5EF6-4D67-AA7B-A29B72BAD367}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -408,13 +408,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -431,44 +430,49 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -478,124 +482,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -615,7 +552,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -903,7 +840,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -913,663 +850,677 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BEA62DC-C5FE-4FE0-9C8D-0F26FA189AE5}">
   <dimension ref="A1:D87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36:B40"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="45.7265625" customWidth="1"/>
-    <col min="2" max="2" width="54.36328125" customWidth="1"/>
-    <col min="3" max="3" width="54.1796875" customWidth="1"/>
+    <col min="1" max="1" width="45.6640625" customWidth="1"/>
+    <col min="2" max="2" width="54.33203125" customWidth="1"/>
+    <col min="3" max="3" width="54.1640625" customWidth="1"/>
     <col min="4" max="4" width="48" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="37" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="18"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="39"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="45" t="s">
+      <c r="D2" s="14"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="31"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="17"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="39"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="45" t="s">
+      <c r="D3" s="13"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="31"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="41"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="42"/>
-      <c r="B5" s="43"/>
-      <c r="C5" s="50" t="s">
+      <c r="D4" s="17"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="32"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="44"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="27" t="s">
+      <c r="D5" s="12"/>
+    </row>
+    <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="51" t="s">
+      <c r="C6" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="52"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="28"/>
-      <c r="B7" s="10" t="s">
+      <c r="D6" s="22"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="31"/>
+      <c r="B7" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="46" t="s">
+      <c r="C7" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="36"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="28"/>
-      <c r="B8" s="11" t="s">
+      <c r="D7" s="17"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="31"/>
+      <c r="B8" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="46" t="s">
+      <c r="C8" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="16"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="28"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="46" t="s">
+      <c r="D8" s="13"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="31"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="16"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="28"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="47" t="s">
+      <c r="D9" s="13"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="31"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="16"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="29"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="23" t="s">
+      <c r="D10" s="13"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="32"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="13"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="24" t="s">
+      <c r="D11" s="10"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="22"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="25"/>
-      <c r="B13" s="31"/>
-      <c r="C13" s="48" t="s">
+      <c r="D12" s="14"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="31"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="16"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="25"/>
-      <c r="B14" s="31"/>
-      <c r="C14" s="48" t="s">
+      <c r="D13" s="13"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="31"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="16"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="26"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="53" t="s">
+      <c r="D14" s="13"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="32"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="13"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="24" t="s">
+      <c r="D15" s="10"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="49" t="s">
+      <c r="C16" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="22"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="25"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="20" t="s">
+      <c r="D16" s="14"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="31"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="16"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="25"/>
-      <c r="B18" s="34"/>
-      <c r="C18" s="20" t="s">
+      <c r="D17" s="13"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="31"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="16"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="26"/>
-      <c r="B19" s="35"/>
-      <c r="C19" s="23" t="s">
+      <c r="D18" s="13"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="32"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="13"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="24" t="s">
+      <c r="D19" s="10"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="33" t="s">
+      <c r="B20" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="54" t="s">
+      <c r="C20" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="22"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" s="25"/>
-      <c r="B21" s="34"/>
-      <c r="C21" s="19" t="s">
+      <c r="D20" s="14"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="31"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="16"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" s="25"/>
-      <c r="B22" s="34"/>
-      <c r="C22" s="20" t="s">
+      <c r="D21" s="13"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="31"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="16"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" s="25"/>
-      <c r="B23" s="34"/>
-      <c r="C23" s="48" t="s">
+      <c r="D22" s="13"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="31"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="16"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" s="25"/>
-      <c r="B24" s="34"/>
-      <c r="C24" s="46" t="s">
+      <c r="D23" s="13"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="31"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="D24" s="16"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" s="25"/>
-      <c r="B25" s="34"/>
-      <c r="C25" s="46" t="s">
+      <c r="D24" s="13"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="31"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D25" s="16"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" s="24" t="s">
+      <c r="D25" s="13"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="B26" s="33" t="s">
+      <c r="B26" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="21" t="s">
+      <c r="C26" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="D26" s="22"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" s="25"/>
-      <c r="B27" s="34"/>
-      <c r="C27" s="19" t="s">
+      <c r="D26" s="14"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="31"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D27" s="16"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" s="25"/>
-      <c r="B28" s="34"/>
-      <c r="C28" s="19" t="s">
+      <c r="D27" s="13"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="31"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D28" s="16"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" s="25"/>
-      <c r="B29" s="34"/>
-      <c r="C29" s="19" t="s">
+      <c r="D28" s="13"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="31"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D29" s="16"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" s="26"/>
-      <c r="B30" s="35"/>
-      <c r="C30" s="23" t="s">
+      <c r="D29" s="13"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="32"/>
+      <c r="B30" s="41"/>
+      <c r="C30" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="D30" s="13"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" s="24" t="s">
+      <c r="D30" s="10"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="B31" s="66" t="s">
+      <c r="B31" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="49" t="s">
+      <c r="C31" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="D31" s="22"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" s="25"/>
-      <c r="B32" s="67"/>
-      <c r="C32" s="45" t="s">
+      <c r="D31" s="14"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="31"/>
+      <c r="B32" s="37"/>
+      <c r="C32" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D32" s="16"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" s="25"/>
-      <c r="B33" s="67"/>
-      <c r="C33" s="20" t="s">
+      <c r="D32" s="13"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="31"/>
+      <c r="B33" s="37"/>
+      <c r="C33" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D33" s="16"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" s="25"/>
-      <c r="B34" s="67"/>
-      <c r="C34" s="56" t="s">
+      <c r="D33" s="13"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="31"/>
+      <c r="B34" s="37"/>
+      <c r="C34" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D34" s="57"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35" s="26"/>
-      <c r="B35" s="68"/>
-      <c r="C35" s="58" t="s">
+      <c r="D34" s="24"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="32"/>
+      <c r="B35" s="38"/>
+      <c r="C35" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="D35" s="59"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A36" s="24" t="s">
+      <c r="D35" s="25"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="B36" s="69" t="s">
+      <c r="B36" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="C36" s="54" t="s">
+      <c r="C36" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="D36" s="61"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37" s="25"/>
-      <c r="B37" s="70"/>
-      <c r="C37" s="20" t="s">
+      <c r="D36" s="26"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="31"/>
+      <c r="B37" s="28"/>
+      <c r="C37" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D37" s="57"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A38" s="25"/>
-      <c r="B38" s="70"/>
-      <c r="C38" s="20" t="s">
+      <c r="D37" s="24"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="31"/>
+      <c r="B38" s="28"/>
+      <c r="C38" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D38" s="36"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A39" s="25"/>
-      <c r="B39" s="70"/>
-      <c r="C39" s="20" t="s">
+      <c r="D38" s="17"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="31"/>
+      <c r="B39" s="28"/>
+      <c r="C39" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D39" s="36"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A40" s="26"/>
-      <c r="B40" s="71"/>
-      <c r="C40" s="62" t="s">
+      <c r="D39" s="17"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="32"/>
+      <c r="B40" s="29"/>
+      <c r="C40" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="D40" s="15"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A41" s="27" t="s">
+      <c r="D40" s="12"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="B41" s="72" t="s">
+      <c r="B41" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="C41" s="64" t="s">
+      <c r="C41" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="D41" s="52"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A42" s="28"/>
-      <c r="B42" s="46" t="s">
+      <c r="D41" s="22"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="31"/>
+      <c r="B42" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="C42" s="63" t="s">
+      <c r="C42" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="D42" s="36"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A43" s="29"/>
-      <c r="B43" s="55" t="s">
+      <c r="D42" s="17"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="32"/>
+      <c r="B43" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="C43" s="65"/>
-      <c r="D43" s="15"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A44" s="27" t="s">
+      <c r="C43" s="35"/>
+      <c r="D43" s="12"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="B44" s="72" t="s">
+      <c r="B44" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="C44" s="64" t="s">
+      <c r="C44" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="D44" s="52"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A45" s="28"/>
-      <c r="B45" s="70" t="s">
+      <c r="D44" s="22"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="31"/>
+      <c r="B45" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="C45" s="60" t="s">
+      <c r="C45" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D45" s="36"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A46" s="28"/>
-      <c r="B46" s="70"/>
-      <c r="C46" s="20" t="s">
+      <c r="D45" s="17"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="31"/>
+      <c r="B46" s="28"/>
+      <c r="C46" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D46" s="36"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A47" s="29"/>
-      <c r="B47" s="71"/>
-      <c r="C47" s="23" t="s">
+      <c r="D46" s="17"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="32"/>
+      <c r="B47" s="29"/>
+      <c r="C47" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="D47" s="15"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A48" s="27" t="s">
+      <c r="D47" s="12"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="B48" s="72" t="s">
+      <c r="B48" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="C48" s="64" t="s">
+      <c r="C48" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="D48" s="52"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A49" s="28"/>
-      <c r="B49" s="70" t="s">
+      <c r="D48" s="22"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="31"/>
+      <c r="B49" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="C49" s="60" t="s">
+      <c r="C49" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D49" s="36"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A50" s="29"/>
-      <c r="B50" s="71"/>
-      <c r="C50" s="62" t="s">
+      <c r="D49" s="17"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="32"/>
+      <c r="B50" s="29"/>
+      <c r="C50" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="D50" s="15"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A51" s="7"/>
-      <c r="B51" s="46"/>
-      <c r="C51" s="7"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A52" s="7"/>
-      <c r="B52" s="6"/>
-      <c r="C52" s="7"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A53" s="7"/>
-      <c r="B53" s="6"/>
-      <c r="C53" s="7"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A54" s="7"/>
-      <c r="B54" s="6"/>
-      <c r="C54" s="7"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A55" s="7"/>
-      <c r="B55" s="6"/>
-      <c r="C55" s="7"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A56" s="7"/>
-      <c r="B56" s="6"/>
-      <c r="C56" s="7"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A57" s="7"/>
-      <c r="B57" s="6"/>
-      <c r="C57" s="7"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A58" s="7"/>
-      <c r="B58" s="6"/>
-      <c r="C58" s="7"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A59" s="7"/>
-      <c r="B59" s="6"/>
-      <c r="C59" s="7"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A60" s="7"/>
-      <c r="B60" s="6"/>
-      <c r="C60" s="7"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A61" s="7"/>
-      <c r="B61" s="6"/>
-      <c r="C61" s="7"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A62" s="7"/>
-      <c r="B62" s="6"/>
-      <c r="C62" s="7"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A63" s="3"/>
-      <c r="B63" s="4"/>
-      <c r="C63" s="7"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A64" s="3"/>
-      <c r="B64" s="4"/>
-      <c r="C64" s="4"/>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A65" s="3"/>
-      <c r="B65" s="4"/>
-      <c r="C65" s="4"/>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A66" s="3"/>
-      <c r="B66" s="4"/>
-      <c r="C66" s="5"/>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A67" s="3"/>
-      <c r="B67" s="4"/>
+      <c r="D50" s="12"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="6"/>
+      <c r="B51" s="18"/>
+      <c r="C51" s="6"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="6"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="6"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="6"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="6"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="6"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="6"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="6"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="6"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="6"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="6"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="6"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="6"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="6"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="6"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="6"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="6"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="6"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="6"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="6"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="6"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="6"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="6"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="2"/>
+      <c r="B63" s="3"/>
+      <c r="C63" s="6"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="2"/>
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" s="2"/>
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" s="2"/>
+      <c r="B66" s="3"/>
+      <c r="C66" s="4"/>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" s="2"/>
+      <c r="B67" s="3"/>
       <c r="C67" s="2"/>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A68" s="3"/>
-      <c r="B68" s="4"/>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" s="2"/>
+      <c r="B68" s="3"/>
       <c r="C68" s="2"/>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A69" s="3"/>
-      <c r="B69" s="4"/>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" s="2"/>
+      <c r="B69" s="3"/>
       <c r="C69" s="2"/>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A70" s="3"/>
-      <c r="B70" s="4"/>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" s="2"/>
+      <c r="B70" s="3"/>
       <c r="C70" s="2"/>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A71" s="3"/>
-      <c r="B71" s="4"/>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" s="2"/>
+      <c r="B71" s="3"/>
       <c r="C71" s="2"/>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A72" s="3"/>
-      <c r="B72" s="4"/>
-      <c r="C72" s="5"/>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A73" s="3"/>
-      <c r="B73" s="4"/>
-      <c r="C73" s="5"/>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A74" s="3"/>
-      <c r="B74" s="4"/>
-      <c r="C74" s="5"/>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A75" s="3"/>
-      <c r="B75" s="4"/>
-      <c r="C75" s="5"/>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A76" s="3"/>
-      <c r="B76" s="4"/>
-      <c r="C76" s="5"/>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" s="2"/>
+      <c r="B72" s="3"/>
+      <c r="C72" s="4"/>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" s="2"/>
+      <c r="B73" s="3"/>
+      <c r="C73" s="4"/>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" s="2"/>
+      <c r="B74" s="3"/>
+      <c r="C74" s="4"/>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" s="2"/>
+      <c r="B75" s="3"/>
+      <c r="C75" s="4"/>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" s="2"/>
+      <c r="B76" s="3"/>
+      <c r="C76" s="4"/>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="2"/>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C87" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="A6:A11"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A31:A35"/>
+    <mergeCell ref="B31:B35"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="B20:B25"/>
+    <mergeCell ref="A20:A25"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="B26:B30"/>
     <mergeCell ref="B49:B50"/>
     <mergeCell ref="A48:A50"/>
     <mergeCell ref="A36:A40"/>
@@ -1578,20 +1529,6 @@
     <mergeCell ref="A41:A43"/>
     <mergeCell ref="B45:B47"/>
     <mergeCell ref="A44:A47"/>
-    <mergeCell ref="A31:A35"/>
-    <mergeCell ref="B31:B35"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="B20:B25"/>
-    <mergeCell ref="A20:A25"/>
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="B26:B30"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="A6:A11"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="A12:A15"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/script_uat.xlsx
+++ b/script_uat.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arifwicaksono/Documents/project/botapp-trader/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arifw\Documents\Personal Documents\Endeavours\Investment\Forex\Programs\botapp-trader\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E7844AF-C53A-B74F-9FB1-E9B67F78ADE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C467995-271A-4019-B0D0-6B05FB68E1EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17420" xr2:uid="{CD51AF28-5EF6-4D67-AA7B-A29B72BAD367}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{CD51AF28-5EF6-4D67-AA7B-A29B72BAD367}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="67">
   <si>
     <t>Test Case</t>
   </si>
@@ -250,12 +250,18 @@
   <si>
     <t>TC-11 Token not Valid When Close Position</t>
   </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>FAILED</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -305,6 +311,20 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -408,7 +428,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -467,6 +487,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -533,6 +559,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -552,7 +579,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -840,7 +867,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -850,19 +877,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BEA62DC-C5FE-4FE0-9C8D-0F26FA189AE5}">
   <dimension ref="A1:D87"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="45.6640625" customWidth="1"/>
-    <col min="2" max="2" width="54.33203125" customWidth="1"/>
-    <col min="3" max="3" width="54.1640625" customWidth="1"/>
+    <col min="1" max="1" width="45.6328125" customWidth="1"/>
+    <col min="2" max="2" width="54.36328125" customWidth="1"/>
+    <col min="3" max="3" width="54.1796875" customWidth="1"/>
     <col min="4" max="4" width="48" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -876,44 +903,52 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="30" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="44" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="14"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="31"/>
-      <c r="B3" s="43"/>
+      <c r="D2" s="28" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="33"/>
+      <c r="B3" s="45"/>
       <c r="C3" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="13"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="31"/>
-      <c r="B4" s="43"/>
+      <c r="D3" s="29" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="33"/>
+      <c r="B4" s="45"/>
       <c r="C4" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="17"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="32"/>
-      <c r="B5" s="44"/>
+      <c r="D4" s="29" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="34"/>
+      <c r="B5" s="46"/>
       <c r="C5" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="12"/>
-    </row>
-    <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="30" t="s">
+      <c r="D5" s="29" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="32" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="8" t="s">
@@ -922,10 +957,12 @@
       <c r="C6" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="22"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="31"/>
+      <c r="D6" s="52" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="33"/>
       <c r="B7" s="9" t="s">
         <v>14</v>
       </c>
@@ -934,9 +971,9 @@
       </c>
       <c r="D7" s="17"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="31"/>
-      <c r="B8" s="45" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="33"/>
+      <c r="B8" s="47" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="18" t="s">
@@ -944,35 +981,35 @@
       </c>
       <c r="D8" s="13"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="31"/>
-      <c r="B9" s="45"/>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="33"/>
+      <c r="B9" s="47"/>
       <c r="C9" s="18" t="s">
         <v>16</v>
       </c>
       <c r="D9" s="13"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="31"/>
-      <c r="B10" s="45"/>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="33"/>
+      <c r="B10" s="47"/>
       <c r="C10" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D10" s="13"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="32"/>
-      <c r="B11" s="46"/>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="34"/>
+      <c r="B11" s="48"/>
       <c r="C11" s="16" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="10"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="30" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="47" t="s">
+      <c r="B12" s="49" t="s">
         <v>20</v>
       </c>
       <c r="C12" s="11" t="s">
@@ -980,35 +1017,35 @@
       </c>
       <c r="D12" s="14"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="31"/>
-      <c r="B13" s="48"/>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="33"/>
+      <c r="B13" s="50"/>
       <c r="C13" s="19" t="s">
         <v>29</v>
       </c>
       <c r="D13" s="13"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="31"/>
-      <c r="B14" s="48"/>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="33"/>
+      <c r="B14" s="50"/>
       <c r="C14" s="19" t="s">
         <v>44</v>
       </c>
       <c r="D14" s="13"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="32"/>
-      <c r="B15" s="49"/>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="34"/>
+      <c r="B15" s="51"/>
       <c r="C15" s="23" t="s">
         <v>22</v>
       </c>
       <c r="D15" s="10"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="30" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="39" t="s">
+      <c r="B16" s="41" t="s">
         <v>21</v>
       </c>
       <c r="C16" s="20" t="s">
@@ -1016,35 +1053,35 @@
       </c>
       <c r="D16" s="14"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="31"/>
-      <c r="B17" s="40"/>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="33"/>
+      <c r="B17" s="42"/>
       <c r="C17" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D17" s="13"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="31"/>
-      <c r="B18" s="40"/>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="33"/>
+      <c r="B18" s="42"/>
       <c r="C18" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D18" s="13"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="32"/>
-      <c r="B19" s="41"/>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="34"/>
+      <c r="B19" s="43"/>
       <c r="C19" s="16" t="s">
         <v>33</v>
       </c>
       <c r="D19" s="10"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="30" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="39" t="s">
+      <c r="B20" s="41" t="s">
         <v>27</v>
       </c>
       <c r="C20" s="15" t="s">
@@ -1052,51 +1089,51 @@
       </c>
       <c r="D20" s="14"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="31"/>
-      <c r="B21" s="40"/>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="33"/>
+      <c r="B21" s="42"/>
       <c r="C21" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D21" s="13"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="31"/>
-      <c r="B22" s="40"/>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="33"/>
+      <c r="B22" s="42"/>
       <c r="C22" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D22" s="13"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="31"/>
-      <c r="B23" s="40"/>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="33"/>
+      <c r="B23" s="42"/>
       <c r="C23" s="19" t="s">
         <v>44</v>
       </c>
       <c r="D23" s="13"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="31"/>
-      <c r="B24" s="40"/>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" s="33"/>
+      <c r="B24" s="42"/>
       <c r="C24" s="18" t="s">
         <v>34</v>
       </c>
       <c r="D24" s="13"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="31"/>
-      <c r="B25" s="40"/>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" s="33"/>
+      <c r="B25" s="42"/>
       <c r="C25" s="18" t="s">
         <v>11</v>
       </c>
       <c r="D25" s="13"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="30" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="B26" s="39" t="s">
+      <c r="B26" s="41" t="s">
         <v>35</v>
       </c>
       <c r="C26" s="15" t="s">
@@ -1104,43 +1141,43 @@
       </c>
       <c r="D26" s="14"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="31"/>
-      <c r="B27" s="40"/>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" s="33"/>
+      <c r="B27" s="42"/>
       <c r="C27" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D27" s="13"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="31"/>
-      <c r="B28" s="40"/>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" s="33"/>
+      <c r="B28" s="42"/>
       <c r="C28" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D28" s="13"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="31"/>
-      <c r="B29" s="40"/>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" s="33"/>
+      <c r="B29" s="42"/>
       <c r="C29" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D29" s="13"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="32"/>
-      <c r="B30" s="41"/>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" s="34"/>
+      <c r="B30" s="43"/>
       <c r="C30" s="16" t="s">
         <v>42</v>
       </c>
       <c r="D30" s="10"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="30" t="s">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="B31" s="36" t="s">
+      <c r="B31" s="38" t="s">
         <v>39</v>
       </c>
       <c r="C31" s="20" t="s">
@@ -1148,43 +1185,43 @@
       </c>
       <c r="D31" s="14"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="31"/>
-      <c r="B32" s="37"/>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" s="33"/>
+      <c r="B32" s="39"/>
       <c r="C32" s="18" t="s">
         <v>41</v>
       </c>
       <c r="D32" s="13"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="31"/>
-      <c r="B33" s="37"/>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" s="33"/>
+      <c r="B33" s="39"/>
       <c r="C33" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D33" s="13"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="31"/>
-      <c r="B34" s="37"/>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" s="33"/>
+      <c r="B34" s="39"/>
       <c r="C34" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D34" s="24"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="32"/>
-      <c r="B35" s="38"/>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" s="34"/>
+      <c r="B35" s="40"/>
       <c r="C35" s="16" t="s">
         <v>46</v>
       </c>
       <c r="D35" s="25"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="30" t="s">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="B36" s="33" t="s">
+      <c r="B36" s="35" t="s">
         <v>48</v>
       </c>
       <c r="C36" s="15" t="s">
@@ -1192,40 +1229,40 @@
       </c>
       <c r="D36" s="26"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="31"/>
-      <c r="B37" s="28"/>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" s="33"/>
+      <c r="B37" s="30"/>
       <c r="C37" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D37" s="24"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="31"/>
-      <c r="B38" s="28"/>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" s="33"/>
+      <c r="B38" s="30"/>
       <c r="C38" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D38" s="17"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="31"/>
-      <c r="B39" s="28"/>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" s="33"/>
+      <c r="B39" s="30"/>
       <c r="C39" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D39" s="17"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="32"/>
-      <c r="B40" s="29"/>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" s="34"/>
+      <c r="B40" s="31"/>
       <c r="C40" s="16" t="s">
         <v>52</v>
       </c>
       <c r="D40" s="12"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="30" t="s">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41" s="32" t="s">
         <v>53</v>
       </c>
       <c r="B41" s="27" t="s">
@@ -1236,26 +1273,26 @@
       </c>
       <c r="D41" s="22"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="31"/>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42" s="33"/>
       <c r="B42" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="C42" s="34" t="s">
+      <c r="C42" s="36" t="s">
         <v>41</v>
       </c>
       <c r="D42" s="17"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="32"/>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43" s="34"/>
       <c r="B43" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="C43" s="35"/>
+      <c r="C43" s="37"/>
       <c r="D43" s="12"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="30" t="s">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44" s="32" t="s">
         <v>63</v>
       </c>
       <c r="B44" s="27" t="s">
@@ -1266,9 +1303,9 @@
       </c>
       <c r="D44" s="22"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="31"/>
-      <c r="B45" s="28" t="s">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A45" s="33"/>
+      <c r="B45" s="30" t="s">
         <v>54</v>
       </c>
       <c r="C45" s="1" t="s">
@@ -1276,24 +1313,24 @@
       </c>
       <c r="D45" s="17"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="31"/>
-      <c r="B46" s="28"/>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A46" s="33"/>
+      <c r="B46" s="30"/>
       <c r="C46" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D46" s="17"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="32"/>
-      <c r="B47" s="29"/>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A47" s="34"/>
+      <c r="B47" s="31"/>
       <c r="C47" s="16" t="s">
         <v>33</v>
       </c>
       <c r="D47" s="12"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="30" t="s">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A48" s="32" t="s">
         <v>64</v>
       </c>
       <c r="B48" s="27" t="s">
@@ -1304,9 +1341,9 @@
       </c>
       <c r="D48" s="22"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="31"/>
-      <c r="B49" s="28" t="s">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49" s="33"/>
+      <c r="B49" s="30" t="s">
         <v>54</v>
       </c>
       <c r="C49" s="1" t="s">
@@ -1314,195 +1351,195 @@
       </c>
       <c r="D49" s="17"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="32"/>
-      <c r="B50" s="29"/>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A50" s="34"/>
+      <c r="B50" s="31"/>
       <c r="C50" s="16" t="s">
         <v>62</v>
       </c>
       <c r="D50" s="12"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" s="6"/>
       <c r="B51" s="18"/>
       <c r="C51" s="6"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" s="6"/>
       <c r="B52" s="5"/>
       <c r="C52" s="6"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="6"/>
       <c r="B53" s="5"/>
       <c r="C53" s="6"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" s="6"/>
       <c r="B54" s="5"/>
       <c r="C54" s="6"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" s="6"/>
       <c r="B55" s="5"/>
       <c r="C55" s="6"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="6"/>
       <c r="B56" s="5"/>
       <c r="C56" s="6"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" s="6"/>
       <c r="B57" s="5"/>
       <c r="C57" s="6"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" s="6"/>
       <c r="B58" s="5"/>
       <c r="C58" s="6"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" s="6"/>
       <c r="B59" s="5"/>
       <c r="C59" s="6"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" s="6"/>
       <c r="B60" s="5"/>
       <c r="C60" s="6"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" s="6"/>
       <c r="B61" s="5"/>
       <c r="C61" s="6"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" s="6"/>
       <c r="B62" s="5"/>
       <c r="C62" s="6"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" s="2"/>
       <c r="B63" s="3"/>
       <c r="C63" s="6"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" s="2"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" s="2"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" s="2"/>
       <c r="B66" s="3"/>
       <c r="C66" s="4"/>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" s="2"/>
       <c r="B67" s="3"/>
       <c r="C67" s="2"/>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" s="2"/>
       <c r="B68" s="3"/>
       <c r="C68" s="2"/>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" s="2"/>
       <c r="B69" s="3"/>
       <c r="C69" s="2"/>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" s="2"/>
       <c r="B70" s="3"/>
       <c r="C70" s="2"/>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" s="2"/>
       <c r="B71" s="3"/>
       <c r="C71" s="2"/>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" s="2"/>
       <c r="B72" s="3"/>
       <c r="C72" s="4"/>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" s="2"/>
       <c r="B73" s="3"/>
       <c r="C73" s="4"/>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" s="2"/>
       <c r="B74" s="3"/>
       <c r="C74" s="4"/>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" s="2"/>
       <c r="B75" s="3"/>
       <c r="C75" s="4"/>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" s="2"/>
       <c r="B76" s="3"/>
       <c r="C76" s="4"/>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="2"/>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C87" s="1"/>
     </row>
   </sheetData>

--- a/script_uat.xlsx
+++ b/script_uat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arifw\Documents\Personal Documents\Endeavours\Investment\Forex\Programs\botapp-trader\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C467995-271A-4019-B0D0-6B05FB68E1EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B000490-8155-4600-9C2F-CBB59F94C066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{CD51AF28-5EF6-4D67-AA7B-A29B72BAD367}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="67">
   <si>
     <t>Test Case</t>
   </si>
@@ -139,9 +139,6 @@
   </si>
   <si>
     <t>Created new trade that one level above the previous</t>
-  </si>
-  <si>
-    <t>Set two level above initial level at constant table and leave it</t>
   </si>
   <si>
     <t>latest trade status will show "successful"</t>
@@ -254,14 +251,17 @@
     <t>PASS</t>
   </si>
   <si>
-    <t>FAILED</t>
+    <t>IN SERVER</t>
+  </si>
+  <si>
+    <t>Set 2 level above initial level at constant table and leave it</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -315,13 +315,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF00B050"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -428,7 +421,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -484,7 +477,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -493,12 +485,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -508,6 +494,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -517,49 +551,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -875,10 +869,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BEA62DC-C5FE-4FE0-9C8D-0F26FA189AE5}">
-  <dimension ref="A1:D87"/>
+  <dimension ref="A1:E87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -886,7 +880,8 @@
     <col min="1" max="1" width="45.6328125" customWidth="1"/>
     <col min="2" max="2" width="54.36328125" customWidth="1"/>
     <col min="3" max="3" width="54.1796875" customWidth="1"/>
-    <col min="4" max="4" width="48" customWidth="1"/>
+    <col min="4" max="4" width="12.36328125" customWidth="1"/>
+    <col min="5" max="5" width="15.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
@@ -904,51 +899,51 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="32" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" s="28" t="s">
-        <v>65</v>
+        <v>40</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="33"/>
-      <c r="B3" s="45"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="33"/>
       <c r="C3" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="29" t="s">
-        <v>65</v>
+      <c r="D3" s="28" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="33"/>
-      <c r="B4" s="45"/>
+      <c r="A4" s="30"/>
+      <c r="B4" s="33"/>
       <c r="C4" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="29" t="s">
-        <v>65</v>
+      <c r="D4" s="28" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="34"/>
-      <c r="B5" s="46"/>
+      <c r="A5" s="31"/>
+      <c r="B5" s="34"/>
       <c r="C5" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="29" t="s">
-        <v>65</v>
+      <c r="D5" s="51" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="29" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="8" t="s">
@@ -957,59 +952,69 @@
       <c r="C6" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="52" t="s">
-        <v>66</v>
+      <c r="D6" s="28" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="33"/>
+      <c r="A7" s="30"/>
       <c r="B7" s="9" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="17"/>
+      <c r="D7" s="28" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="33"/>
-      <c r="B8" s="47" t="s">
+      <c r="A8" s="30"/>
+      <c r="B8" s="35" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="13"/>
+      <c r="D8" s="28" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="33"/>
-      <c r="B9" s="47"/>
+      <c r="A9" s="30"/>
+      <c r="B9" s="35"/>
       <c r="C9" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="13"/>
+      <c r="D9" s="28" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="33"/>
-      <c r="B10" s="47"/>
+      <c r="A10" s="30"/>
+      <c r="B10" s="35"/>
       <c r="C10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="13"/>
+      <c r="D10" s="28" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="34"/>
-      <c r="B11" s="48"/>
+      <c r="A11" s="31"/>
+      <c r="B11" s="36"/>
       <c r="C11" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="10"/>
+      <c r="D11" s="28" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="32" t="s">
+      <c r="A12" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="49" t="s">
+      <c r="B12" s="37" t="s">
         <v>20</v>
       </c>
       <c r="C12" s="11" t="s">
@@ -1018,344 +1023,402 @@
       <c r="D12" s="14"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="33"/>
-      <c r="B13" s="50"/>
+      <c r="A13" s="30"/>
+      <c r="B13" s="38"/>
       <c r="C13" s="19" t="s">
         <v>29</v>
       </c>
       <c r="D13" s="13"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="33"/>
-      <c r="B14" s="50"/>
+      <c r="A14" s="30"/>
+      <c r="B14" s="38"/>
       <c r="C14" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D14" s="13"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="34"/>
-      <c r="B15" s="51"/>
+      <c r="A15" s="31"/>
+      <c r="B15" s="39"/>
       <c r="C15" s="23" t="s">
         <v>22</v>
       </c>
       <c r="D15" s="10"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="32" t="s">
+      <c r="A16" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="43" t="s">
         <v>21</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D16" s="14"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="33"/>
-      <c r="B17" s="42"/>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="30"/>
+      <c r="B17" s="44"/>
       <c r="C17" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D17" s="13"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="33"/>
-      <c r="B18" s="42"/>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="30"/>
+      <c r="B18" s="44"/>
       <c r="C18" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D18" s="13"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="34"/>
-      <c r="B19" s="43"/>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="31"/>
+      <c r="B19" s="45"/>
       <c r="C19" s="16" t="s">
         <v>33</v>
       </c>
       <c r="D19" s="10"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="32" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="41" t="s">
+      <c r="B20" s="43" t="s">
         <v>27</v>
       </c>
       <c r="C20" s="15" t="s">
         <v>30</v>
       </c>
       <c r="D20" s="14"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" s="33"/>
-      <c r="B21" s="42"/>
+      <c r="E20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="30"/>
+      <c r="B21" s="44"/>
       <c r="C21" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D21" s="13"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" s="33"/>
-      <c r="B22" s="42"/>
+      <c r="E21" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="30"/>
+      <c r="B22" s="44"/>
       <c r="C22" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D22" s="13"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" s="33"/>
-      <c r="B23" s="42"/>
+      <c r="E22" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="30"/>
+      <c r="B23" s="44"/>
       <c r="C23" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D23" s="13"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" s="33"/>
-      <c r="B24" s="42"/>
+      <c r="E23" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" s="30"/>
+      <c r="B24" s="44"/>
       <c r="C24" s="18" t="s">
         <v>34</v>
       </c>
       <c r="D24" s="13"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" s="33"/>
-      <c r="B25" s="42"/>
+      <c r="E24" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" s="30"/>
+      <c r="B25" s="44"/>
       <c r="C25" s="18" t="s">
         <v>11</v>
       </c>
       <c r="D25" s="13"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="B26" s="41" t="s">
+      <c r="E25" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" s="14"/>
+      <c r="E26" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" s="30"/>
+      <c r="B27" s="44"/>
+      <c r="C27" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="D26" s="14"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" s="33"/>
-      <c r="B27" s="42"/>
-      <c r="C27" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="D27" s="13"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" s="33"/>
-      <c r="B28" s="42"/>
+      <c r="E27" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" s="30"/>
+      <c r="B28" s="44"/>
       <c r="C28" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D28" s="13"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" s="33"/>
-      <c r="B29" s="42"/>
+      <c r="E28" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" s="30"/>
+      <c r="B29" s="44"/>
       <c r="C29" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D29" s="13"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" s="34"/>
-      <c r="B30" s="43"/>
+      <c r="E29" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" s="31"/>
+      <c r="B30" s="45"/>
       <c r="C30" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D30" s="10"/>
+      <c r="E30" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D31" s="28" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" s="30"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D32" s="28" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" s="30"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D33" s="28" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" s="30"/>
+      <c r="B34" s="41"/>
+      <c r="C34" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D30" s="10"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="B31" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="C31" s="20" t="s">
+      <c r="D34" s="28" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" s="31"/>
+      <c r="B35" s="42"/>
+      <c r="C35" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D35" s="28" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D36" s="25"/>
+      <c r="E36" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" s="30"/>
+      <c r="B37" s="46"/>
+      <c r="C37" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D37" s="24"/>
+      <c r="E37" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38" s="30"/>
+      <c r="B38" s="46"/>
+      <c r="C38" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D38" s="17"/>
+      <c r="E38" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39" s="30"/>
+      <c r="B39" s="46"/>
+      <c r="C39" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D39" s="17"/>
+      <c r="E39" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40" s="31"/>
+      <c r="B40" s="47"/>
+      <c r="C40" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D40" s="12"/>
+      <c r="E40" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A41" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="B41" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D41" s="22"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A42" s="30"/>
+      <c r="B42" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C42" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="D31" s="14"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" s="33"/>
-      <c r="B32" s="39"/>
-      <c r="C32" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="D32" s="13"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" s="33"/>
-      <c r="B33" s="39"/>
-      <c r="C33" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D33" s="13"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" s="33"/>
-      <c r="B34" s="39"/>
-      <c r="C34" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D34" s="24"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35" s="34"/>
-      <c r="B35" s="40"/>
-      <c r="C35" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D35" s="25"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A36" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="B36" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="C36" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="D36" s="26"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37" s="33"/>
-      <c r="B37" s="30"/>
-      <c r="C37" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D37" s="24"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A38" s="33"/>
-      <c r="B38" s="30"/>
-      <c r="C38" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D38" s="17"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A39" s="33"/>
-      <c r="B39" s="30"/>
-      <c r="C39" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D39" s="17"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A40" s="34"/>
-      <c r="B40" s="31"/>
-      <c r="C40" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="D40" s="12"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A41" s="32" t="s">
+      <c r="D42" s="17"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A43" s="31"/>
+      <c r="B43" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C43" s="50"/>
+      <c r="D43" s="12"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A44" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="B44" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D44" s="22"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A45" s="30"/>
+      <c r="B45" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="B41" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="C41" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="D41" s="22"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A42" s="33"/>
-      <c r="B42" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="C42" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="D42" s="17"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A43" s="34"/>
-      <c r="B43" s="21" t="s">
+      <c r="C45" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C43" s="37"/>
-      <c r="D43" s="12"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A44" s="32" t="s">
-        <v>63</v>
-      </c>
-      <c r="B44" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="C44" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="D44" s="22"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A45" s="33"/>
-      <c r="B45" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="D45" s="17"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A46" s="33"/>
-      <c r="B46" s="30"/>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A46" s="30"/>
+      <c r="B46" s="46"/>
       <c r="C46" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D46" s="17"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A47" s="34"/>
-      <c r="B47" s="31"/>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A47" s="31"/>
+      <c r="B47" s="47"/>
       <c r="C47" s="16" t="s">
         <v>33</v>
       </c>
       <c r="D47" s="12"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A48" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="B48" s="27" t="s">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A48" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="B48" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C48" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="C48" s="15" t="s">
+      <c r="D48" s="22"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49" s="30"/>
+      <c r="B49" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D49" s="17"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A50" s="31"/>
+      <c r="B50" s="47"/>
+      <c r="C50" s="16" t="s">
         <v>61</v>
-      </c>
-      <c r="D48" s="22"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A49" s="33"/>
-      <c r="B49" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D49" s="17"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A50" s="34"/>
-      <c r="B50" s="31"/>
-      <c r="C50" s="16" t="s">
-        <v>62</v>
       </c>
       <c r="D50" s="12"/>
     </row>
@@ -1544,12 +1607,14 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="A6:A11"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="A36:A40"/>
+    <mergeCell ref="B36:B40"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="A44:A47"/>
     <mergeCell ref="A31:A35"/>
     <mergeCell ref="B31:B35"/>
     <mergeCell ref="B16:B19"/>
@@ -1558,14 +1623,12 @@
     <mergeCell ref="A20:A25"/>
     <mergeCell ref="A26:A30"/>
     <mergeCell ref="B26:B30"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="A36:A40"/>
-    <mergeCell ref="B36:B40"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="A6:A11"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="A12:A15"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/script_uat.xlsx
+++ b/script_uat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arifw\Documents\Personal Documents\Endeavours\Investment\Forex\Programs\botapp-trader\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B000490-8155-4600-9C2F-CBB59F94C066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B77EBDE6-550C-4CA1-8B78-5CBC3AC18ED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{CD51AF28-5EF6-4D67-AA7B-A29B72BAD367}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="68">
   <si>
     <t>Test Case</t>
   </si>
@@ -255,6 +255,9 @@
   </si>
   <si>
     <t>Set 2 level above initial level at constant table and leave it</t>
+  </si>
+  <si>
+    <t>Passed all scenario for trade conditions</t>
   </si>
 </sst>
 </file>
@@ -421,7 +424,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -485,6 +488,18 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -494,6 +509,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -518,40 +560,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -869,10 +878,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BEA62DC-C5FE-4FE0-9C8D-0F26FA189AE5}">
-  <dimension ref="A1:E87"/>
+  <dimension ref="A1:E88"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -899,10 +908,10 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="45" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="20" t="s">
@@ -913,8 +922,8 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="30"/>
-      <c r="B3" s="33"/>
+      <c r="A3" s="34"/>
+      <c r="B3" s="46"/>
       <c r="C3" s="18" t="s">
         <v>6</v>
       </c>
@@ -923,8 +932,8 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="30"/>
-      <c r="B4" s="33"/>
+      <c r="A4" s="34"/>
+      <c r="B4" s="46"/>
       <c r="C4" s="18" t="s">
         <v>7</v>
       </c>
@@ -933,17 +942,17 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="31"/>
-      <c r="B5" s="34"/>
+      <c r="A5" s="35"/>
+      <c r="B5" s="47"/>
       <c r="C5" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="51" t="s">
+      <c r="D5" s="29" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="33" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="8" t="s">
@@ -957,7 +966,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="30"/>
+      <c r="A7" s="34"/>
       <c r="B7" s="9" t="s">
         <v>14</v>
       </c>
@@ -969,8 +978,8 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="30"/>
-      <c r="B8" s="35" t="s">
+      <c r="A8" s="34"/>
+      <c r="B8" s="48" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="18" t="s">
@@ -981,8 +990,8 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="30"/>
-      <c r="B9" s="35"/>
+      <c r="A9" s="34"/>
+      <c r="B9" s="48"/>
       <c r="C9" s="18" t="s">
         <v>16</v>
       </c>
@@ -991,8 +1000,8 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="30"/>
-      <c r="B10" s="35"/>
+      <c r="A10" s="34"/>
+      <c r="B10" s="48"/>
       <c r="C10" s="5" t="s">
         <v>17</v>
       </c>
@@ -1001,8 +1010,8 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="31"/>
-      <c r="B11" s="36"/>
+      <c r="A11" s="35"/>
+      <c r="B11" s="49"/>
       <c r="C11" s="16" t="s">
         <v>18</v>
       </c>
@@ -1011,10 +1020,10 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="50" t="s">
         <v>20</v>
       </c>
       <c r="C12" s="11" t="s">
@@ -1023,34 +1032,34 @@
       <c r="D12" s="14"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="30"/>
-      <c r="B13" s="38"/>
+      <c r="A13" s="34"/>
+      <c r="B13" s="51"/>
       <c r="C13" s="19" t="s">
         <v>29</v>
       </c>
       <c r="D13" s="13"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="30"/>
-      <c r="B14" s="38"/>
+      <c r="A14" s="34"/>
+      <c r="B14" s="51"/>
       <c r="C14" s="19" t="s">
         <v>43</v>
       </c>
       <c r="D14" s="13"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="31"/>
-      <c r="B15" s="39"/>
+      <c r="A15" s="35"/>
+      <c r="B15" s="52"/>
       <c r="C15" s="23" t="s">
         <v>22</v>
       </c>
       <c r="D15" s="10"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="43" t="s">
+      <c r="B16" s="42" t="s">
         <v>21</v>
       </c>
       <c r="C16" s="20" t="s">
@@ -1059,60 +1068,57 @@
       <c r="D16" s="14"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="30"/>
-      <c r="B17" s="44"/>
+      <c r="A17" s="34"/>
+      <c r="B17" s="43"/>
       <c r="C17" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D17" s="13"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="30"/>
-      <c r="B18" s="44"/>
+      <c r="A18" s="34"/>
+      <c r="B18" s="43"/>
       <c r="C18" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D18" s="13"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="31"/>
-      <c r="B19" s="45"/>
-      <c r="C19" s="16" t="s">
+      <c r="A19" s="34"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="10"/>
+      <c r="D19" s="13"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="29" t="s">
+      <c r="A20" s="35"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" s="10"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="43" t="s">
+      <c r="B21" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C21" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="14"/>
-      <c r="E20" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="30"/>
-      <c r="B21" s="44"/>
-      <c r="C21" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D21" s="13"/>
+      <c r="D21" s="14"/>
       <c r="E21" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="30"/>
-      <c r="B22" s="44"/>
+      <c r="A22" s="34"/>
+      <c r="B22" s="43"/>
       <c r="C22" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D22" s="13"/>
       <c r="E22" t="s">
@@ -1120,10 +1126,10 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="30"/>
-      <c r="B23" s="44"/>
-      <c r="C23" s="19" t="s">
-        <v>43</v>
+      <c r="A23" s="34"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="D23" s="13"/>
       <c r="E23" t="s">
@@ -1131,10 +1137,10 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="30"/>
-      <c r="B24" s="44"/>
-      <c r="C24" s="18" t="s">
-        <v>34</v>
+      <c r="A24" s="34"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="19" t="s">
+        <v>43</v>
       </c>
       <c r="D24" s="13"/>
       <c r="E24" t="s">
@@ -1142,10 +1148,10 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="30"/>
-      <c r="B25" s="44"/>
+      <c r="A25" s="34"/>
+      <c r="B25" s="43"/>
       <c r="C25" s="18" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="D25" s="13"/>
       <c r="E25" t="s">
@@ -1153,36 +1159,36 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="B26" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="C26" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="D26" s="14"/>
+      <c r="A26" s="34"/>
+      <c r="B26" s="43"/>
+      <c r="C26" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="13"/>
       <c r="E26" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" s="30"/>
-      <c r="B27" s="44"/>
-      <c r="C27" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D27" s="13"/>
+      <c r="A27" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" s="14"/>
       <c r="E27" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" s="30"/>
-      <c r="B28" s="44"/>
+      <c r="A28" s="34"/>
+      <c r="B28" s="43"/>
       <c r="C28" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D28" s="13"/>
       <c r="E28" t="s">
@@ -1190,10 +1196,10 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" s="30"/>
-      <c r="B29" s="44"/>
+      <c r="A29" s="34"/>
+      <c r="B29" s="43"/>
       <c r="C29" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D29" s="13"/>
       <c r="E29" t="s">
@@ -1201,112 +1207,112 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30" s="31"/>
-      <c r="B30" s="45"/>
-      <c r="C30" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="D30" s="10"/>
+      <c r="A30" s="34"/>
+      <c r="B30" s="43"/>
+      <c r="C30" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D30" s="13"/>
       <c r="E30" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31" s="29" t="s">
+      <c r="A31" s="35"/>
+      <c r="B31" s="44"/>
+      <c r="C31" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D31" s="10"/>
+      <c r="E31" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="B31" s="40" t="s">
+      <c r="B32" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="C31" s="20" t="s">
+      <c r="C32" s="20" t="s">
         <v>39</v>
-      </c>
-      <c r="D31" s="28" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A32" s="30"/>
-      <c r="B32" s="41"/>
-      <c r="C32" s="18" t="s">
-        <v>40</v>
       </c>
       <c r="D32" s="28" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33" s="30"/>
-      <c r="B33" s="41"/>
-      <c r="C33" s="1" t="s">
-        <v>41</v>
+      <c r="A33" s="34"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="18" t="s">
+        <v>40</v>
       </c>
       <c r="D33" s="28" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A34" s="30"/>
-      <c r="B34" s="41"/>
+      <c r="A34" s="34"/>
+      <c r="B34" s="40"/>
       <c r="C34" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D34" s="28" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A35" s="31"/>
-      <c r="B35" s="42"/>
-      <c r="C35" s="16" t="s">
-        <v>45</v>
+      <c r="A35" s="34"/>
+      <c r="B35" s="40"/>
+      <c r="C35" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="D35" s="28" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A36" s="29" t="s">
+      <c r="A36" s="35"/>
+      <c r="B36" s="41"/>
+      <c r="C36" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D36" s="28" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="B36" s="48" t="s">
+      <c r="B37" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="C36" s="15" t="s">
+      <c r="C37" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="D36" s="25"/>
-      <c r="E36" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A37" s="30"/>
-      <c r="B37" s="46"/>
-      <c r="C37" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D37" s="24"/>
+      <c r="D37" s="25"/>
       <c r="E37" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A38" s="30"/>
-      <c r="B38" s="46"/>
+      <c r="A38" s="34"/>
+      <c r="B38" s="31"/>
       <c r="C38" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D38" s="17"/>
+        <v>49</v>
+      </c>
+      <c r="D38" s="24"/>
       <c r="E38" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A39" s="30"/>
-      <c r="B39" s="46"/>
+      <c r="A39" s="34"/>
+      <c r="B39" s="31"/>
       <c r="C39" s="1" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="D39" s="17"/>
       <c r="E39" t="s">
@@ -1314,122 +1320,128 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A40" s="31"/>
-      <c r="B40" s="47"/>
-      <c r="C40" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="D40" s="12"/>
+      <c r="A40" s="34"/>
+      <c r="B40" s="31"/>
+      <c r="C40" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D40" s="17"/>
       <c r="E40" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A41" s="29" t="s">
+      <c r="A41" s="35"/>
+      <c r="B41" s="32"/>
+      <c r="C41" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D41" s="12"/>
+      <c r="E41" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A42" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="B41" s="26" t="s">
+      <c r="B42" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="C41" s="15" t="s">
+      <c r="C42" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="D41" s="22"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A42" s="30"/>
-      <c r="B42" s="18" t="s">
+      <c r="D42" s="22"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A43" s="34"/>
+      <c r="B43" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="C42" s="49" t="s">
+      <c r="C43" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="D42" s="17"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A43" s="31"/>
-      <c r="B43" s="21" t="s">
+      <c r="D43" s="17"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A44" s="35"/>
+      <c r="B44" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="C43" s="50"/>
-      <c r="D43" s="12"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A44" s="29" t="s">
+      <c r="C44" s="38"/>
+      <c r="D44" s="12"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A45" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="B44" s="26" t="s">
+      <c r="B45" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="C44" s="15" t="s">
+      <c r="C45" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="D44" s="22"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A45" s="30"/>
-      <c r="B45" s="46" t="s">
+      <c r="D45" s="22"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A46" s="34"/>
+      <c r="B46" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C46" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D45" s="17"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A46" s="30"/>
-      <c r="B46" s="46"/>
-      <c r="C46" s="1" t="s">
+      <c r="D46" s="17"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A47" s="34"/>
+      <c r="B47" s="31"/>
+      <c r="C47" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D46" s="17"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A47" s="31"/>
-      <c r="B47" s="47"/>
-      <c r="C47" s="16" t="s">
+      <c r="D47" s="17"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A48" s="35"/>
+      <c r="B48" s="32"/>
+      <c r="C48" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="D47" s="12"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A48" s="29" t="s">
+      <c r="D48" s="12"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="B48" s="26" t="s">
+      <c r="B49" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="C48" s="15" t="s">
+      <c r="C49" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="D48" s="22"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A49" s="30"/>
-      <c r="B49" s="46" t="s">
+      <c r="D49" s="22"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A50" s="34"/>
+      <c r="B50" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C50" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D49" s="17"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A50" s="31"/>
-      <c r="B50" s="47"/>
-      <c r="C50" s="16" t="s">
+      <c r="D50" s="17"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A51" s="35"/>
+      <c r="B51" s="32"/>
+      <c r="C51" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="D50" s="12"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A51" s="6"/>
-      <c r="B51" s="18"/>
-      <c r="C51" s="6"/>
+      <c r="D51" s="12"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" s="6"/>
-      <c r="B52" s="5"/>
+      <c r="B52" s="18"/>
       <c r="C52" s="6"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
@@ -1483,14 +1495,14 @@
       <c r="C62" s="6"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A63" s="2"/>
-      <c r="B63" s="3"/>
+      <c r="A63" s="6"/>
+      <c r="B63" s="5"/>
       <c r="C63" s="6"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" s="2"/>
       <c r="B64" s="3"/>
-      <c r="C64" s="3"/>
+      <c r="C64" s="6"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" s="2"/>
@@ -1500,12 +1512,12 @@
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" s="2"/>
       <c r="B66" s="3"/>
-      <c r="C66" s="4"/>
+      <c r="C66" s="3"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" s="2"/>
       <c r="B67" s="3"/>
-      <c r="C67" s="2"/>
+      <c r="C67" s="4"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" s="2"/>
@@ -1530,7 +1542,7 @@
     <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" s="2"/>
       <c r="B72" s="3"/>
-      <c r="C72" s="4"/>
+      <c r="C72" s="2"/>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" s="2"/>
@@ -1553,14 +1565,14 @@
       <c r="C76" s="4"/>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A77" s="1"/>
-      <c r="B77" s="1"/>
-      <c r="C77" s="2"/>
+      <c r="A77" s="2"/>
+      <c r="B77" s="3"/>
+      <c r="C77" s="4"/>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
-      <c r="C78" s="1"/>
+      <c r="C78" s="2"/>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" s="1"/>
@@ -1603,32 +1615,37 @@
       <c r="C86" s="1"/>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A87" s="1"/>
+      <c r="B87" s="1"/>
       <c r="C87" s="1"/>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C88" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="A36:A40"/>
-    <mergeCell ref="B36:B40"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="A44:A47"/>
-    <mergeCell ref="A31:A35"/>
-    <mergeCell ref="B31:B35"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="B20:B25"/>
-    <mergeCell ref="A20:A25"/>
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="B26:B30"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="A6:A11"/>
     <mergeCell ref="B8:B11"/>
     <mergeCell ref="B12:B15"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A32:A36"/>
+    <mergeCell ref="B32:B36"/>
+    <mergeCell ref="B16:B20"/>
+    <mergeCell ref="A16:A20"/>
+    <mergeCell ref="B21:B26"/>
+    <mergeCell ref="A21:A26"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="A37:A41"/>
+    <mergeCell ref="B37:B41"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="A45:A48"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/script_uat.xlsx
+++ b/script_uat.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arifw\Documents\Personal Documents\Endeavours\Investment\Forex\Programs\botapp-trader\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arifwicaksono/Documents/project/botapp-trader/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B77EBDE6-550C-4CA1-8B78-5CBC3AC18ED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C71266C-0198-4246-AFAD-2AAC64B9624E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{CD51AF28-5EF6-4D67-AA7B-A29B72BAD367}"/>
+    <workbookView xWindow="160" yWindow="920" windowWidth="29920" windowHeight="17100" xr2:uid="{CD51AF28-5EF6-4D67-AA7B-A29B72BAD367}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="68">
   <si>
     <t>Test Case</t>
   </si>
@@ -424,7 +424,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -485,14 +485,56 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -500,15 +542,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -517,51 +550,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -582,7 +570,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -870,7 +858,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -880,20 +868,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BEA62DC-C5FE-4FE0-9C8D-0F26FA189AE5}">
   <dimension ref="A1:E88"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="45.6328125" customWidth="1"/>
-    <col min="2" max="2" width="54.36328125" customWidth="1"/>
-    <col min="3" max="3" width="54.1796875" customWidth="1"/>
-    <col min="4" max="4" width="12.36328125" customWidth="1"/>
-    <col min="5" max="5" width="15.81640625" customWidth="1"/>
+    <col min="1" max="1" width="45.6640625" customWidth="1"/>
+    <col min="2" max="2" width="54.33203125" customWidth="1"/>
+    <col min="3" max="3" width="54.1640625" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -907,11 +895,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="33" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="31" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="20" t="s">
@@ -921,38 +909,38 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="34"/>
-      <c r="B3" s="46"/>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="29"/>
+      <c r="B3" s="32"/>
       <c r="C3" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="27" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="34"/>
-      <c r="B4" s="46"/>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="29"/>
+      <c r="B4" s="32"/>
       <c r="C4" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="27" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="35"/>
-      <c r="B5" s="47"/>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="30"/>
+      <c r="B5" s="33"/>
       <c r="C5" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="27" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="33" t="s">
+    <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="28" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="8" t="s">
@@ -961,69 +949,69 @@
       <c r="C6" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="28" t="s">
+      <c r="D6" s="27" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="34"/>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="29"/>
       <c r="B7" s="9" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="28" t="s">
+      <c r="D7" s="27" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="34"/>
-      <c r="B8" s="48" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="29"/>
+      <c r="B8" s="34" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="28" t="s">
+      <c r="D8" s="27" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="34"/>
-      <c r="B9" s="48"/>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="29"/>
+      <c r="B9" s="34"/>
       <c r="C9" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="28" t="s">
+      <c r="D9" s="27" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="34"/>
-      <c r="B10" s="48"/>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="29"/>
+      <c r="B10" s="34"/>
       <c r="C10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="28" t="s">
+      <c r="D10" s="27" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="35"/>
-      <c r="B11" s="49"/>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="30"/>
+      <c r="B11" s="35"/>
       <c r="C11" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="28" t="s">
+      <c r="D11" s="27" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="33" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="50" t="s">
+      <c r="B12" s="36" t="s">
         <v>20</v>
       </c>
       <c r="C12" s="11" t="s">
@@ -1031,32 +1019,32 @@
       </c>
       <c r="D12" s="14"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="34"/>
-      <c r="B13" s="51"/>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="29"/>
+      <c r="B13" s="37"/>
       <c r="C13" s="19" t="s">
         <v>29</v>
       </c>
       <c r="D13" s="13"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="34"/>
-      <c r="B14" s="51"/>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="29"/>
+      <c r="B14" s="37"/>
       <c r="C14" s="19" t="s">
         <v>43</v>
       </c>
       <c r="D14" s="13"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="35"/>
-      <c r="B15" s="52"/>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="30"/>
+      <c r="B15" s="38"/>
       <c r="C15" s="23" t="s">
         <v>22</v>
       </c>
       <c r="D15" s="10"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="33" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="28" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="42" t="s">
@@ -1067,40 +1055,42 @@
       </c>
       <c r="D16" s="14"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="34"/>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="29"/>
       <c r="B17" s="43"/>
       <c r="C17" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D17" s="13"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="34"/>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="29"/>
       <c r="B18" s="43"/>
       <c r="C18" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D18" s="13"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="34"/>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="29"/>
       <c r="B19" s="43"/>
-      <c r="C19" s="30" t="s">
+      <c r="C19" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D19" s="13"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="35"/>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="30"/>
       <c r="B20" s="44"/>
-      <c r="C20" s="53" t="s">
+      <c r="C20" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D20" s="10"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="33" t="s">
+      <c r="D20" s="27" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="28" t="s">
         <v>26</v>
       </c>
       <c r="B21" s="42" t="s">
@@ -1114,8 +1104,8 @@
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="34"/>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="29"/>
       <c r="B22" s="43"/>
       <c r="C22" s="1" t="s">
         <v>31</v>
@@ -1125,8 +1115,8 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="34"/>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="29"/>
       <c r="B23" s="43"/>
       <c r="C23" s="1" t="s">
         <v>32</v>
@@ -1136,8 +1126,8 @@
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="34"/>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="29"/>
       <c r="B24" s="43"/>
       <c r="C24" s="19" t="s">
         <v>43</v>
@@ -1147,8 +1137,8 @@
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="34"/>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="29"/>
       <c r="B25" s="43"/>
       <c r="C25" s="18" t="s">
         <v>34</v>
@@ -1158,8 +1148,8 @@
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="34"/>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="29"/>
       <c r="B26" s="43"/>
       <c r="C26" s="18" t="s">
         <v>11</v>
@@ -1169,8 +1159,8 @@
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" s="33" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="28" t="s">
         <v>36</v>
       </c>
       <c r="B27" s="42" t="s">
@@ -1184,8 +1174,8 @@
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" s="34"/>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="29"/>
       <c r="B28" s="43"/>
       <c r="C28" s="1" t="s">
         <v>35</v>
@@ -1195,8 +1185,8 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" s="34"/>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="29"/>
       <c r="B29" s="43"/>
       <c r="C29" s="1" t="s">
         <v>30</v>
@@ -1206,8 +1196,8 @@
         <v>65</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30" s="34"/>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="29"/>
       <c r="B30" s="43"/>
       <c r="C30" s="1" t="s">
         <v>31</v>
@@ -1217,8 +1207,8 @@
         <v>65</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31" s="35"/>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="30"/>
       <c r="B31" s="44"/>
       <c r="C31" s="16" t="s">
         <v>41</v>
@@ -1228,8 +1218,8 @@
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A32" s="33" t="s">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="28" t="s">
         <v>37</v>
       </c>
       <c r="B32" s="39" t="s">
@@ -1238,55 +1228,55 @@
       <c r="C32" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="D32" s="28" t="s">
+      <c r="D32" s="27" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33" s="34"/>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="29"/>
       <c r="B33" s="40"/>
       <c r="C33" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="D33" s="28" t="s">
+      <c r="D33" s="27" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A34" s="34"/>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="29"/>
       <c r="B34" s="40"/>
       <c r="C34" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D34" s="28" t="s">
+      <c r="D34" s="27" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A35" s="34"/>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="29"/>
       <c r="B35" s="40"/>
       <c r="C35" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D35" s="28" t="s">
+      <c r="D35" s="27" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A36" s="35"/>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="30"/>
       <c r="B36" s="41"/>
       <c r="C36" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="D36" s="28" t="s">
+      <c r="D36" s="27" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A37" s="33" t="s">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="B37" s="36" t="s">
+      <c r="B37" s="47" t="s">
         <v>47</v>
       </c>
       <c r="C37" s="15" t="s">
@@ -1297,9 +1287,9 @@
         <v>65</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A38" s="34"/>
-      <c r="B38" s="31"/>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="29"/>
+      <c r="B38" s="45"/>
       <c r="C38" s="1" t="s">
         <v>49</v>
       </c>
@@ -1308,9 +1298,9 @@
         <v>65</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A39" s="34"/>
-      <c r="B39" s="31"/>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="29"/>
+      <c r="B39" s="45"/>
       <c r="C39" s="1" t="s">
         <v>50</v>
       </c>
@@ -1319,9 +1309,9 @@
         <v>65</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A40" s="34"/>
-      <c r="B40" s="31"/>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="29"/>
+      <c r="B40" s="45"/>
       <c r="C40" s="1" t="s">
         <v>41</v>
       </c>
@@ -1330,9 +1320,9 @@
         <v>65</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A41" s="35"/>
-      <c r="B41" s="32"/>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="30"/>
+      <c r="B41" s="46"/>
       <c r="C41" s="16" t="s">
         <v>51</v>
       </c>
@@ -1341,8 +1331,8 @@
         <v>65</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A42" s="33" t="s">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="28" t="s">
         <v>52</v>
       </c>
       <c r="B42" s="26" t="s">
@@ -1353,26 +1343,26 @@
       </c>
       <c r="D42" s="22"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A43" s="34"/>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="29"/>
       <c r="B43" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="C43" s="37" t="s">
+      <c r="C43" s="48" t="s">
         <v>40</v>
       </c>
       <c r="D43" s="17"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A44" s="35"/>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="30"/>
       <c r="B44" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="C44" s="38"/>
+      <c r="C44" s="49"/>
       <c r="D44" s="12"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A45" s="33" t="s">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="28" t="s">
         <v>62</v>
       </c>
       <c r="B45" s="26" t="s">
@@ -1383,9 +1373,9 @@
       </c>
       <c r="D45" s="22"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A46" s="34"/>
-      <c r="B46" s="31" t="s">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="29"/>
+      <c r="B46" s="45" t="s">
         <v>53</v>
       </c>
       <c r="C46" s="1" t="s">
@@ -1393,24 +1383,24 @@
       </c>
       <c r="D46" s="17"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A47" s="34"/>
-      <c r="B47" s="31"/>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="29"/>
+      <c r="B47" s="45"/>
       <c r="C47" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D47" s="17"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A48" s="35"/>
-      <c r="B48" s="32"/>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="30"/>
+      <c r="B48" s="46"/>
       <c r="C48" s="16" t="s">
         <v>33</v>
       </c>
       <c r="D48" s="12"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A49" s="33" t="s">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="28" t="s">
         <v>63</v>
       </c>
       <c r="B49" s="26" t="s">
@@ -1421,9 +1411,9 @@
       </c>
       <c r="D49" s="22"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A50" s="34"/>
-      <c r="B50" s="31" t="s">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="29"/>
+      <c r="B50" s="45" t="s">
         <v>53</v>
       </c>
       <c r="C50" s="1" t="s">
@@ -1431,205 +1421,207 @@
       </c>
       <c r="D50" s="17"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A51" s="35"/>
-      <c r="B51" s="32"/>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="30"/>
+      <c r="B51" s="46"/>
       <c r="C51" s="16" t="s">
         <v>61</v>
       </c>
       <c r="D51" s="12"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="6"/>
       <c r="B52" s="18"/>
       <c r="C52" s="6"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="6"/>
       <c r="B53" s="5"/>
       <c r="C53" s="6"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="6"/>
       <c r="B54" s="5"/>
       <c r="C54" s="6"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="6"/>
       <c r="B55" s="5"/>
       <c r="C55" s="6"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="6"/>
       <c r="B56" s="5"/>
       <c r="C56" s="6"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="6"/>
       <c r="B57" s="5"/>
       <c r="C57" s="6"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="6"/>
       <c r="B58" s="5"/>
       <c r="C58" s="6"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="6"/>
       <c r="B59" s="5"/>
       <c r="C59" s="6"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="6"/>
       <c r="B60" s="5"/>
       <c r="C60" s="6"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="6"/>
       <c r="B61" s="5"/>
       <c r="C61" s="6"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="6"/>
       <c r="B62" s="5"/>
       <c r="C62" s="6"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="6"/>
       <c r="B63" s="5"/>
       <c r="C63" s="6"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
       <c r="B64" s="3"/>
       <c r="C64" s="6"/>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="2"/>
       <c r="B67" s="3"/>
       <c r="C67" s="4"/>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="2"/>
       <c r="B68" s="3"/>
       <c r="C68" s="2"/>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
       <c r="B69" s="3"/>
       <c r="C69" s="2"/>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
       <c r="B70" s="3"/>
       <c r="C70" s="2"/>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
       <c r="B71" s="3"/>
       <c r="C71" s="2"/>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="2"/>
       <c r="B72" s="3"/>
       <c r="C72" s="2"/>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="2"/>
       <c r="B73" s="3"/>
       <c r="C73" s="4"/>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
       <c r="B74" s="3"/>
       <c r="C74" s="4"/>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
       <c r="B75" s="3"/>
       <c r="C75" s="4"/>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
       <c r="B76" s="3"/>
       <c r="C76" s="4"/>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="2"/>
       <c r="B77" s="3"/>
       <c r="C77" s="4"/>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="2"/>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C88" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="A6:A11"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="A37:A41"/>
+    <mergeCell ref="B37:B41"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="A45:A48"/>
     <mergeCell ref="A32:A36"/>
     <mergeCell ref="B32:B36"/>
     <mergeCell ref="B16:B20"/>
@@ -1638,14 +1630,12 @@
     <mergeCell ref="A21:A26"/>
     <mergeCell ref="A27:A31"/>
     <mergeCell ref="B27:B31"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="A49:A51"/>
-    <mergeCell ref="A37:A41"/>
-    <mergeCell ref="B37:B41"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="A45:A48"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="A6:A11"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="A12:A15"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/script_uat.xlsx
+++ b/script_uat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arifwicaksono/Documents/project/botapp-trader/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C71266C-0198-4246-AFAD-2AAC64B9624E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1323B44A-3540-934C-A908-8C8254962C77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="160" yWindow="920" windowWidth="29920" windowHeight="17100" xr2:uid="{CD51AF28-5EF6-4D67-AA7B-A29B72BAD367}"/>
   </bookViews>
@@ -276,17 +276,20 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -868,8 +871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BEA62DC-C5FE-4FE0-9C8D-0F26FA189AE5}">
   <dimension ref="A1:E88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1150,7 +1153,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="29"/>
-      <c r="B26" s="43"/>
+      <c r="B26" s="44"/>
       <c r="C26" s="18" t="s">
         <v>11</v>
       </c>

--- a/script_uat.xlsx
+++ b/script_uat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arifwicaksono/Documents/project/botapp-trader/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1323B44A-3540-934C-A908-8C8254962C77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{052114F7-8EB4-714E-8812-55085F4432FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="160" yWindow="920" windowWidth="29920" windowHeight="17100" xr2:uid="{CD51AF28-5EF6-4D67-AA7B-A29B72BAD367}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="61">
   <si>
     <t>Test Case</t>
   </si>
@@ -225,27 +225,6 @@
   </si>
   <si>
     <t>token refreshed</t>
-  </si>
-  <si>
-    <t>after position has closed</t>
-  </si>
-  <si>
-    <t>position open failed</t>
-  </si>
-  <si>
-    <t>after position has open</t>
-  </si>
-  <si>
-    <t>position closed falied</t>
-  </si>
-  <si>
-    <t>position closed successfully</t>
-  </si>
-  <si>
-    <t>TC-10 Token not Valid When Open Position</t>
-  </si>
-  <si>
-    <t>TC-11 Token not Valid When Close Position</t>
   </si>
   <si>
     <t>PASS</t>
@@ -427,7 +406,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -480,7 +459,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -488,6 +466,12 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -497,6 +481,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -520,39 +531,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -869,10 +847,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BEA62DC-C5FE-4FE0-9C8D-0F26FA189AE5}">
-  <dimension ref="A1:E88"/>
+  <dimension ref="A1:E81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:A20"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -899,51 +877,51 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="41" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="27" t="s">
-        <v>64</v>
+      <c r="D2" s="26" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="29"/>
-      <c r="B3" s="32"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="42"/>
       <c r="C3" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="27" t="s">
-        <v>64</v>
+      <c r="D3" s="26" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="29"/>
-      <c r="B4" s="32"/>
+      <c r="A4" s="30"/>
+      <c r="B4" s="42"/>
       <c r="C4" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="27" t="s">
-        <v>64</v>
+      <c r="D4" s="26" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="30"/>
-      <c r="B5" s="33"/>
+      <c r="A5" s="31"/>
+      <c r="B5" s="43"/>
       <c r="C5" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="27" t="s">
-        <v>64</v>
+      <c r="D5" s="26" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="29" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="8" t="s">
@@ -952,69 +930,69 @@
       <c r="C6" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="27" t="s">
-        <v>64</v>
+      <c r="D6" s="26" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="29"/>
+      <c r="A7" s="30"/>
       <c r="B7" s="9" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="27" t="s">
-        <v>64</v>
+      <c r="D7" s="26" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="29"/>
-      <c r="B8" s="34" t="s">
+      <c r="A8" s="30"/>
+      <c r="B8" s="44" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="27" t="s">
-        <v>64</v>
+      <c r="D8" s="26" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="29"/>
-      <c r="B9" s="34"/>
+      <c r="A9" s="30"/>
+      <c r="B9" s="44"/>
       <c r="C9" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="27" t="s">
-        <v>64</v>
+      <c r="D9" s="26" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="29"/>
-      <c r="B10" s="34"/>
+      <c r="A10" s="30"/>
+      <c r="B10" s="44"/>
       <c r="C10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="27" t="s">
-        <v>64</v>
+      <c r="D10" s="26" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="30"/>
-      <c r="B11" s="35"/>
+      <c r="A11" s="31"/>
+      <c r="B11" s="45"/>
       <c r="C11" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="27" t="s">
-        <v>64</v>
+      <c r="D11" s="26" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="46" t="s">
         <v>20</v>
       </c>
       <c r="C12" s="11" t="s">
@@ -1023,34 +1001,34 @@
       <c r="D12" s="14"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="29"/>
-      <c r="B13" s="37"/>
+      <c r="A13" s="30"/>
+      <c r="B13" s="47"/>
       <c r="C13" s="19" t="s">
         <v>29</v>
       </c>
       <c r="D13" s="13"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="29"/>
-      <c r="B14" s="37"/>
+      <c r="A14" s="30"/>
+      <c r="B14" s="47"/>
       <c r="C14" s="19" t="s">
         <v>43</v>
       </c>
       <c r="D14" s="13"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="30"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="23" t="s">
+      <c r="A15" s="31"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="22" t="s">
         <v>22</v>
       </c>
       <c r="D15" s="10"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="28" t="s">
+      <c r="A16" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="42" t="s">
+      <c r="B16" s="38" t="s">
         <v>21</v>
       </c>
       <c r="C16" s="20" t="s">
@@ -1059,44 +1037,44 @@
       <c r="D16" s="14"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="29"/>
-      <c r="B17" s="43"/>
+      <c r="A17" s="30"/>
+      <c r="B17" s="39"/>
       <c r="C17" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D17" s="13"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="29"/>
-      <c r="B18" s="43"/>
+      <c r="A18" s="30"/>
+      <c r="B18" s="39"/>
       <c r="C18" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D18" s="13"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="29"/>
-      <c r="B19" s="43"/>
+      <c r="A19" s="30"/>
+      <c r="B19" s="39"/>
       <c r="C19" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D19" s="13"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="30"/>
-      <c r="B20" s="44"/>
+      <c r="A20" s="31"/>
+      <c r="B20" s="40"/>
       <c r="C20" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D20" s="27" t="s">
-        <v>64</v>
+        <v>60</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="28" t="s">
+      <c r="A21" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="42" t="s">
+      <c r="B21" s="38" t="s">
         <v>27</v>
       </c>
       <c r="C21" s="15" t="s">
@@ -1104,408 +1082,381 @@
       </c>
       <c r="D21" s="14"/>
       <c r="E21" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="29"/>
-      <c r="B22" s="43"/>
+      <c r="A22" s="30"/>
+      <c r="B22" s="39"/>
       <c r="C22" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D22" s="13"/>
       <c r="E22" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="29"/>
-      <c r="B23" s="43"/>
+      <c r="A23" s="30"/>
+      <c r="B23" s="39"/>
       <c r="C23" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D23" s="13"/>
       <c r="E23" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="29"/>
-      <c r="B24" s="43"/>
+      <c r="A24" s="30"/>
+      <c r="B24" s="39"/>
       <c r="C24" s="19" t="s">
         <v>43</v>
       </c>
       <c r="D24" s="13"/>
       <c r="E24" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="29"/>
-      <c r="B25" s="43"/>
+      <c r="A25" s="30"/>
+      <c r="B25" s="39"/>
       <c r="C25" s="18" t="s">
         <v>34</v>
       </c>
       <c r="D25" s="13"/>
       <c r="E25" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="29"/>
-      <c r="B26" s="44"/>
+      <c r="A26" s="30"/>
+      <c r="B26" s="40"/>
       <c r="C26" s="18" t="s">
         <v>11</v>
       </c>
       <c r="D26" s="13"/>
       <c r="E26" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="28" t="s">
+      <c r="A27" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="42" t="s">
-        <v>66</v>
+      <c r="B27" s="38" t="s">
+        <v>59</v>
       </c>
       <c r="C27" s="15" t="s">
         <v>44</v>
       </c>
       <c r="D27" s="14"/>
       <c r="E27" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="29"/>
-      <c r="B28" s="43"/>
+      <c r="A28" s="30"/>
+      <c r="B28" s="39"/>
       <c r="C28" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D28" s="13"/>
       <c r="E28" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="29"/>
-      <c r="B29" s="43"/>
+      <c r="A29" s="30"/>
+      <c r="B29" s="39"/>
       <c r="C29" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D29" s="13"/>
       <c r="E29" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="29"/>
-      <c r="B30" s="43"/>
+      <c r="A30" s="30"/>
+      <c r="B30" s="39"/>
       <c r="C30" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D30" s="13"/>
       <c r="E30" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="30"/>
-      <c r="B31" s="44"/>
+      <c r="A31" s="31"/>
+      <c r="B31" s="40"/>
       <c r="C31" s="16" t="s">
         <v>41</v>
       </c>
       <c r="D31" s="10"/>
       <c r="E31" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="28" t="s">
+      <c r="A32" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="B32" s="39" t="s">
+      <c r="B32" s="35" t="s">
         <v>38</v>
       </c>
       <c r="C32" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="D32" s="27" t="s">
-        <v>64</v>
+      <c r="D32" s="26" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="29"/>
-      <c r="B33" s="40"/>
+      <c r="A33" s="30"/>
+      <c r="B33" s="36"/>
       <c r="C33" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="D33" s="27" t="s">
-        <v>64</v>
+      <c r="D33" s="26" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="29"/>
-      <c r="B34" s="40"/>
+      <c r="A34" s="30"/>
+      <c r="B34" s="36"/>
       <c r="C34" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D34" s="27" t="s">
-        <v>64</v>
+      <c r="D34" s="26" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="29"/>
-      <c r="B35" s="40"/>
+      <c r="A35" s="30"/>
+      <c r="B35" s="36"/>
       <c r="C35" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D35" s="27" t="s">
-        <v>64</v>
+      <c r="D35" s="26" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="30"/>
-      <c r="B36" s="41"/>
+      <c r="A36" s="31"/>
+      <c r="B36" s="37"/>
       <c r="C36" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="D36" s="27" t="s">
-        <v>64</v>
+      <c r="D36" s="26" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="28" t="s">
+      <c r="A37" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="B37" s="47" t="s">
+      <c r="B37" s="32" t="s">
         <v>47</v>
       </c>
       <c r="C37" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="D37" s="25"/>
+      <c r="D37" s="24"/>
       <c r="E37" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="29"/>
-      <c r="B38" s="45"/>
+      <c r="A38" s="30"/>
+      <c r="B38" s="27"/>
       <c r="C38" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D38" s="24"/>
+      <c r="D38" s="23"/>
       <c r="E38" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="29"/>
-      <c r="B39" s="45"/>
+      <c r="A39" s="30"/>
+      <c r="B39" s="27"/>
       <c r="C39" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D39" s="17"/>
       <c r="E39" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="29"/>
-      <c r="B40" s="45"/>
+      <c r="A40" s="30"/>
+      <c r="B40" s="27"/>
       <c r="C40" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D40" s="17"/>
       <c r="E40" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="30"/>
-      <c r="B41" s="46"/>
+      <c r="A41" s="31"/>
+      <c r="B41" s="28"/>
       <c r="C41" s="16" t="s">
         <v>51</v>
       </c>
       <c r="D41" s="12"/>
       <c r="E41" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="28" t="s">
+      <c r="A42" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="B42" s="26" t="s">
+      <c r="B42" s="25" t="s">
         <v>54</v>
       </c>
       <c r="C42" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="D42" s="22"/>
+      <c r="D42" s="26" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="29"/>
+      <c r="A43" s="30"/>
       <c r="B43" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="C43" s="48" t="s">
+      <c r="C43" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="D43" s="17"/>
+      <c r="D43" s="26" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="30"/>
+      <c r="A44" s="31"/>
       <c r="B44" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="C44" s="49"/>
-      <c r="D44" s="12"/>
+      <c r="C44" s="34"/>
+      <c r="D44" s="26" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="B45" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="C45" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D45" s="22"/>
+      <c r="A45" s="6"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="6"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="29"/>
-      <c r="B46" s="45" t="s">
-        <v>53</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D46" s="17"/>
+      <c r="A46" s="6"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="6"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="29"/>
-      <c r="B47" s="45"/>
-      <c r="C47" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D47" s="17"/>
+      <c r="A47" s="6"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="6"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="30"/>
-      <c r="B48" s="46"/>
-      <c r="C48" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="D48" s="12"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="B49" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="C49" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="D49" s="22"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="29"/>
-      <c r="B50" s="45" t="s">
-        <v>53</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D50" s="17"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="30"/>
-      <c r="B51" s="46"/>
-      <c r="C51" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="D51" s="12"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="6"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="6"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="6"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="6"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="6"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="6"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="6"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="6"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="6"/>
-      <c r="B52" s="18"/>
+      <c r="B52" s="5"/>
       <c r="C52" s="6"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="6"/>
       <c r="B53" s="5"/>
       <c r="C53" s="6"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="6"/>
       <c r="B54" s="5"/>
       <c r="C54" s="6"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="6"/>
       <c r="B55" s="5"/>
       <c r="C55" s="6"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="6"/>
       <c r="B56" s="5"/>
       <c r="C56" s="6"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="6"/>
-      <c r="B57" s="5"/>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" s="2"/>
+      <c r="B57" s="3"/>
       <c r="C57" s="6"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="6"/>
-      <c r="B58" s="5"/>
-      <c r="C58" s="6"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="6"/>
-      <c r="B59" s="5"/>
-      <c r="C59" s="6"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="6"/>
-      <c r="B60" s="5"/>
-      <c r="C60" s="6"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="6"/>
-      <c r="B61" s="5"/>
-      <c r="C61" s="6"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="6"/>
-      <c r="B62" s="5"/>
-      <c r="C62" s="6"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="6"/>
-      <c r="B63" s="5"/>
-      <c r="C63" s="6"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" s="2"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" s="2"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" s="2"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="4"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" s="2"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="2"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" s="2"/>
+      <c r="B62" s="3"/>
+      <c r="C62" s="2"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" s="2"/>
+      <c r="B63" s="3"/>
+      <c r="C63" s="2"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
       <c r="B64" s="3"/>
-      <c r="C64" s="6"/>
+      <c r="C64" s="2"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
       <c r="B65" s="3"/>
-      <c r="C65" s="3"/>
+      <c r="C65" s="2"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
       <c r="B66" s="3"/>
-      <c r="C66" s="3"/>
+      <c r="C66" s="4"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="2"/>
@@ -1515,57 +1466,57 @@
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="2"/>
       <c r="B68" s="3"/>
-      <c r="C68" s="2"/>
+      <c r="C68" s="4"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
       <c r="B69" s="3"/>
-      <c r="C69" s="2"/>
+      <c r="C69" s="4"/>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
       <c r="B70" s="3"/>
-      <c r="C70" s="2"/>
+      <c r="C70" s="4"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A71" s="2"/>
-      <c r="B71" s="3"/>
+      <c r="A71" s="1"/>
+      <c r="B71" s="1"/>
       <c r="C71" s="2"/>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A72" s="2"/>
-      <c r="B72" s="3"/>
-      <c r="C72" s="2"/>
+      <c r="A72" s="1"/>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A73" s="2"/>
-      <c r="B73" s="3"/>
-      <c r="C73" s="4"/>
+      <c r="A73" s="1"/>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A74" s="2"/>
-      <c r="B74" s="3"/>
-      <c r="C74" s="4"/>
+      <c r="A74" s="1"/>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A75" s="2"/>
-      <c r="B75" s="3"/>
-      <c r="C75" s="4"/>
+      <c r="A75" s="1"/>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A76" s="2"/>
-      <c r="B76" s="3"/>
-      <c r="C76" s="4"/>
+      <c r="A76" s="1"/>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A77" s="2"/>
-      <c r="B77" s="3"/>
-      <c r="C77" s="4"/>
+      <c r="A77" s="1"/>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
-      <c r="C78" s="2"/>
+      <c r="C78" s="1"/>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="1"/>
@@ -1577,54 +1528,17 @@
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A81" s="1"/>
-      <c r="B81" s="1"/>
+    <row r="81" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C81" s="1"/>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A82" s="1"/>
-      <c r="B82" s="1"/>
-      <c r="C82" s="1"/>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A83" s="1"/>
-      <c r="B83" s="1"/>
-      <c r="C83" s="1"/>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A84" s="1"/>
-      <c r="B84" s="1"/>
-      <c r="C84" s="1"/>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A85" s="1"/>
-      <c r="B85" s="1"/>
-      <c r="C85" s="1"/>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A86" s="1"/>
-      <c r="B86" s="1"/>
-      <c r="C86" s="1"/>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A87" s="1"/>
-      <c r="B87" s="1"/>
-      <c r="C87" s="1"/>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C88" s="1"/>
-    </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="A49:A51"/>
-    <mergeCell ref="A37:A41"/>
-    <mergeCell ref="B37:B41"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="A45:A48"/>
+  <mergeCells count="18">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="A6:A11"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="A12:A15"/>
     <mergeCell ref="A32:A36"/>
     <mergeCell ref="B32:B36"/>
     <mergeCell ref="B16:B20"/>
@@ -1633,12 +1547,10 @@
     <mergeCell ref="A21:A26"/>
     <mergeCell ref="A27:A31"/>
     <mergeCell ref="B27:B31"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="A6:A11"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A37:A41"/>
+    <mergeCell ref="B37:B41"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="A42:A44"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
